--- a/dataset/rubi_tag_ref.xlsx
+++ b/dataset/rubi_tag_ref.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Acevedo\Documents\CODIGOS\DEGRADACION\GIT\RubiCurves\Rubi_degradaciones\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6C59A8-4204-4084-AAB9-905B5C5B687C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A4786E-28CF-4AEB-BD6B-64FB46754CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2E989F6D-A17C-4462-AB52-36424982D7F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{2E989F6D-A17C-4462-AB52-36424982D7F9}"/>
   </bookViews>
   <sheets>
     <sheet name="tags_disp" sheetId="2" r:id="rId1"/>
-    <sheet name="temp_panel" sheetId="1" r:id="rId2"/>
+    <sheet name="pot" sheetId="4" r:id="rId2"/>
+    <sheet name="irr" sheetId="5" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId5"/>
+    <sheet name="temp_panel" sheetId="1" r:id="rId6"/>
+    <sheet name="temp_inv" sheetId="3" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja2!$B$1:$B$165</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,10 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t>Tag</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="435">
   <si>
     <t>Nombre tag</t>
   </si>
@@ -178,13 +186,1180 @@
   </si>
   <si>
     <t>tpanel_id</t>
+  </si>
+  <si>
+    <t>Archivo</t>
+  </si>
+  <si>
+    <t>Temp. Int. Inversor</t>
+  </si>
+  <si>
+    <t>rubi_temp_panel.pk</t>
+  </si>
+  <si>
+    <t>rubi_temp_inv.pk</t>
+  </si>
+  <si>
+    <t>Potencia</t>
+  </si>
+  <si>
+    <t>Irradiancia</t>
+  </si>
+  <si>
+    <t>potencia_rubi.pk</t>
+  </si>
+  <si>
+    <t>irradiancia_rubi.pk</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>irr</t>
+  </si>
+  <si>
+    <t>temp_inv</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.1.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.1.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.1.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.1.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.2.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.2.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.2.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.2.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.3.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.3.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.3.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.3.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.4.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.4.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.4.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.4.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.5.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.5.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.5.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.5.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.6.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.6.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.6.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.6.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.7.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.7.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.7.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.7.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.8.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.8.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.8.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.8.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.9.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.9.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.9.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.9.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.10.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.10.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.10.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.10.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.11.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.11.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.11.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.11.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.12.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.12.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.12.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.12.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.13.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.13.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.13.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.13.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.14.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.14.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.14.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.14.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.15.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.15.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.15.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.15.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.16.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.16.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.16.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.16.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.17.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.17.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.17.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.17.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.18.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.18.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.18.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.18.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.19.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.19.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.19.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.19.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.20.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.20.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.20.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.20.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.21.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.21.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.21.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.21.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.22.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.22.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.22.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.22.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.23.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.23.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.23.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.23.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.24.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.24.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.24.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.24.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.25.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.25.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.25.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.25.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.26.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.26.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.26.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.26.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.27.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.27.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.27.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.27.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.28.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.28.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.28.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.28.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.29.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.29.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.29.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.29.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.30.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.30.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.30.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.30.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.31.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.31.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.31.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.31.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.32.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.32.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.32.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.32.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.33.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.33.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.33.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.33.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.34.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.34.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.34.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.34.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.35.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.35.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.35.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.35.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.36.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.36.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.36.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.36.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.37.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.37.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.37.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.37.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.38.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.38.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.38.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.38.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.39.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.39.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.39.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.39.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.40.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.40.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.40.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.40.4101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.41.1101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.41.2101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.41.3101.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.41.4101.13.Value</t>
+  </si>
+  <si>
+    <t>Temperatura interna inversor</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>irradiancia</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.1.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.2.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.3.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.4.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.5.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.6.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.7.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.8.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.9.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.10.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.11.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.12.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.13.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.14.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.15.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.16.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.17.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.18.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.19.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.20.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.21.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.22.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.23.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.24.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.25.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.26.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.27.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.28.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.29.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.30.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.31.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.32.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.33.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.34.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.35.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.36.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.37.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.38.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.39.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.40.3.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.41.3.13.Value</t>
+  </si>
+  <si>
+    <t>potencia</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.1.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.1.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.1.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.1.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.2.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.2.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.2.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.2.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.3.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.3.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.3.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.3.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.4.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.4.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.4.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.4.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.5.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.5.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.5.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.5.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.6.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.6.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.6.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.6.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.7.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.7.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.7.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.7.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.8.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.8.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.8.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.8.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.9.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.9.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.9.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.9.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.10.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.10.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.10.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.10.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.11.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.11.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.11.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.11.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.12.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.12.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.12.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.12.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.13.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.13.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.13.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.13.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.14.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.14.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.14.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.14.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.15.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.15.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.15.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.15.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.16.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.16.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.16.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.16.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.17.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.17.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.17.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.17.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.18.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.18.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.18.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.18.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.19.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.19.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.19.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.19.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.20.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.20.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.20.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.20.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.21.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.21.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.21.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.21.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.22.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.22.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.22.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.22.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.23.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.23.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.23.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.23.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.24.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.24.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.24.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.24.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.25.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.25.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.25.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.25.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.26.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.26.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.26.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.26.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.27.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.27.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.27.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.27.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.28.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.28.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.28.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.28.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.29.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.29.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.29.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.29.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.30.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.30.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.30.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.30.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.31.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.31.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.31.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.31.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.32.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.32.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.32.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.32.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.33.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.33.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.33.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.33.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.34.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.34.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.34.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.34.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.35.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.35.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.35.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.35.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.36.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.36.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.36.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.36.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.37.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.37.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.37.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.37.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.38.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.38.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.38.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.38.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.39.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.39.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.39.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.39.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.40.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.40.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.40.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.40.4004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.41.1004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.41.2004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.41.3004.13.Value</t>
+  </si>
+  <si>
+    <t>IEC60870-5-104.chnRUBI50.41.4004.13.Value</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Suma de tpanel_id</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>tag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +1369,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,8 +1402,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,6 +1442,1418 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Juan Acevedo" refreshedDate="44964.800639004628" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="41" xr:uid="{1C685AB3-DDD8-4C11-BA75-70B6AC80F430}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B42" sheet="temp_panel"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="tpanel_id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="41" count="41">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="27"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="30"/>
+        <n v="31"/>
+        <n v="32"/>
+        <n v="33"/>
+        <n v="34"/>
+        <n v="35"/>
+        <n v="36"/>
+        <n v="37"/>
+        <n v="38"/>
+        <n v="39"/>
+        <n v="40"/>
+        <n v="41"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="1" numFmtId="0">
+      <sharedItems count="41">
+        <s v="IEC60870-5-104.chnRUBI50.1.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.2.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.3.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.4.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.5.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.6.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.7.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.8.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.9.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.10.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.11.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.12.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.13.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.14.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.15.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.16.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.17.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.18.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.19.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.20.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.21.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.22.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.23.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.24.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.25.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.26.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.27.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.28.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.29.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.30.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.31.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.32.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.33.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.34.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.35.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.36.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.37.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.38.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.39.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.40.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.41.4.13.Value"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="2" numFmtId="0">
+      <sharedItems count="41">
+        <s v="IEC60870-5-104.chnRUBI50.1.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.2.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.3.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.4.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.5.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.6.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.7.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.8.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.9.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.10.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.11.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.12.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.13.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.14.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.15.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.16.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.17.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.18.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.19.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.20.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.21.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.22.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.23.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.24.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.25.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.26.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.27.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.28.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.29.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.30.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.31.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.32.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.33.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.34.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.35.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.36.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.37.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.38.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.39.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.40.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.41.4.13.Value"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="3" numFmtId="0">
+      <sharedItems count="41">
+        <s v="IEC60870-5-104.chnRUBI50.1.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.2.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.3.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.4.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.5.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.6.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.7.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.8.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.9.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.10.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.11.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.12.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.13.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.14.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.15.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.16.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.17.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.18.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.19.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.20.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.21.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.22.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.23.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.24.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.25.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.26.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.27.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.28.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.29.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.30.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.31.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.32.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.33.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.34.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.35.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.36.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.37.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.38.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.39.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.40.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.41.4.13.Value"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="4" numFmtId="0">
+      <sharedItems count="41">
+        <s v="IEC60870-5-104.chnRUBI50.1.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.2.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.3.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.4.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.5.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.6.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.7.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.8.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.9.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.10.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.11.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.12.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.13.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.14.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.15.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.16.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.17.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.18.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.19.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.20.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.21.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.22.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.23.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.24.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.25.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.26.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.27.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.28.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.29.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.30.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.31.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.32.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.33.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.34.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.35.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.36.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.37.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.38.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.39.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.40.4.13.Value"/>
+        <s v="IEC60870-5-104.chnRUBI50.41.4.13.Value"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="41">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="40"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7F0F8A9-367A-4641-B64D-214AE6C05E50}" name="TablaDinámica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B209" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="42">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="42">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="2"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="3"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="42">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="2"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="3"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="42">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="2"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="3"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="42">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="2"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="3"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="5">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="206">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="3">
+      <x v="11"/>
+    </i>
+    <i r="4">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="2">
+      <x v="22"/>
+    </i>
+    <i r="3">
+      <x v="22"/>
+    </i>
+    <i r="4">
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i r="2">
+      <x v="33"/>
+    </i>
+    <i r="3">
+      <x v="33"/>
+    </i>
+    <i r="4">
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+    </i>
+    <i r="2">
+      <x v="36"/>
+    </i>
+    <i r="3">
+      <x v="36"/>
+    </i>
+    <i r="4">
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i r="2">
+      <x v="37"/>
+    </i>
+    <i r="3">
+      <x v="37"/>
+    </i>
+    <i r="4">
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i r="2">
+      <x v="38"/>
+    </i>
+    <i r="3">
+      <x v="38"/>
+    </i>
+    <i r="4">
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i r="2">
+      <x v="39"/>
+    </i>
+    <i r="3">
+      <x v="39"/>
+    </i>
+    <i r="4">
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i r="2">
+      <x v="40"/>
+    </i>
+    <i r="3">
+      <x v="40"/>
+    </i>
+    <i r="4">
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="4">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="4">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i r="4">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="4">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i r="4">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="3">
+      <x v="8"/>
+    </i>
+    <i r="4">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="3">
+      <x v="9"/>
+    </i>
+    <i r="4">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="3">
+      <x v="10"/>
+    </i>
+    <i r="4">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i r="3">
+      <x v="12"/>
+    </i>
+    <i r="4">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="13"/>
+    </i>
+    <i r="3">
+      <x v="13"/>
+    </i>
+    <i r="4">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="14"/>
+    </i>
+    <i r="3">
+      <x v="14"/>
+    </i>
+    <i r="4">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="15"/>
+    </i>
+    <i r="3">
+      <x v="15"/>
+    </i>
+    <i r="4">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x v="16"/>
+    </i>
+    <i r="3">
+      <x v="16"/>
+    </i>
+    <i r="4">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="2">
+      <x v="17"/>
+    </i>
+    <i r="3">
+      <x v="17"/>
+    </i>
+    <i r="4">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="2">
+      <x v="18"/>
+    </i>
+    <i r="3">
+      <x v="18"/>
+    </i>
+    <i r="4">
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="2">
+      <x v="19"/>
+    </i>
+    <i r="3">
+      <x v="19"/>
+    </i>
+    <i r="4">
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="2">
+      <x v="20"/>
+    </i>
+    <i r="3">
+      <x v="20"/>
+    </i>
+    <i r="4">
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="2">
+      <x v="21"/>
+    </i>
+    <i r="3">
+      <x v="21"/>
+    </i>
+    <i r="4">
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="2">
+      <x v="23"/>
+    </i>
+    <i r="3">
+      <x v="23"/>
+    </i>
+    <i r="4">
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="2">
+      <x v="24"/>
+    </i>
+    <i r="3">
+      <x v="24"/>
+    </i>
+    <i r="4">
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="2">
+      <x v="25"/>
+    </i>
+    <i r="3">
+      <x v="25"/>
+    </i>
+    <i r="4">
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="2">
+      <x v="26"/>
+    </i>
+    <i r="3">
+      <x v="26"/>
+    </i>
+    <i r="4">
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="2">
+      <x v="27"/>
+    </i>
+    <i r="3">
+      <x v="27"/>
+    </i>
+    <i r="4">
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="2">
+      <x v="28"/>
+    </i>
+    <i r="3">
+      <x v="28"/>
+    </i>
+    <i r="4">
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="2">
+      <x v="29"/>
+    </i>
+    <i r="3">
+      <x v="29"/>
+    </i>
+    <i r="4">
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="2">
+      <x v="30"/>
+    </i>
+    <i r="3">
+      <x v="30"/>
+    </i>
+    <i r="4">
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="2">
+      <x v="31"/>
+    </i>
+    <i r="3">
+      <x v="31"/>
+    </i>
+    <i r="4">
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i r="2">
+      <x v="32"/>
+    </i>
+    <i r="3">
+      <x v="32"/>
+    </i>
+    <i r="4">
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i r="2">
+      <x v="34"/>
+    </i>
+    <i r="3">
+      <x v="34"/>
+    </i>
+    <i r="4">
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i r="2">
+      <x v="35"/>
+    </i>
+    <i r="3">
+      <x v="35"/>
+    </i>
+    <i r="4">
+      <x v="35"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de tpanel_id" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,28 +3153,1403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87DD3D3-B63A-4D83-A9F6-55A1B50A1602}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4D95F4-1BF1-4C71-83F9-CD2FC9937207}">
+  <dimension ref="A1:B165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -564,22 +4557,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C9B675-647B-41E2-B00D-68B84D635BDF}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C27525-1748-4685-93A7-CB5632A08C0C}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -587,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -595,7 +4588,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -603,7 +4596,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -611,7 +4604,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -619,7 +4612,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -627,7 +4620,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -635,7 +4628,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -643,7 +4636,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -651,7 +4644,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -659,7 +4652,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -667,7 +4660,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -675,7 +4668,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -683,7 +4676,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -691,7 +4684,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -699,7 +4692,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -707,7 +4700,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -715,7 +4708,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -723,7 +4716,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -731,7 +4724,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -739,7 +4732,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -747,7 +4740,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -755,7 +4748,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -763,7 +4756,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -771,7 +4764,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -779,7 +4772,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -787,7 +4780,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -795,7 +4788,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -803,7 +4796,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -811,7 +4804,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -819,7 +4812,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -827,7 +4820,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -835,7 +4828,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -843,7 +4836,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -851,7 +4844,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -859,7 +4852,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -867,7 +4860,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -875,7 +4868,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -883,7 +4876,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -891,7 +4884,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -899,7 +4892,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -907,11 +4900,5206 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D11743-5349-4D3C-A678-4FEFFC0D3275}">
+  <dimension ref="A3:B209"/>
+  <sheetViews>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A208"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="23" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="34" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="42" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>5</v>
+      </c>
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>6</v>
+      </c>
+      <c r="B29" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>7</v>
+      </c>
+      <c r="B34" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>8</v>
+      </c>
+      <c r="B39" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>9</v>
+      </c>
+      <c r="B44" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>10</v>
+      </c>
+      <c r="B49" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>11</v>
+      </c>
+      <c r="B54" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>12</v>
+      </c>
+      <c r="B59" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>13</v>
+      </c>
+      <c r="B64" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>14</v>
+      </c>
+      <c r="B69" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>15</v>
+      </c>
+      <c r="B74" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>16</v>
+      </c>
+      <c r="B79" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>17</v>
+      </c>
+      <c r="B84" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>18</v>
+      </c>
+      <c r="B89" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>19</v>
+      </c>
+      <c r="B94" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>20</v>
+      </c>
+      <c r="B99" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>21</v>
+      </c>
+      <c r="B104" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>22</v>
+      </c>
+      <c r="B109" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>23</v>
+      </c>
+      <c r="B114" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>24</v>
+      </c>
+      <c r="B119" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>25</v>
+      </c>
+      <c r="B124" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>26</v>
+      </c>
+      <c r="B129" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B130" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B131" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B132" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>27</v>
+      </c>
+      <c r="B134" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B135" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>28</v>
+      </c>
+      <c r="B139" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B140" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B141" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B142" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B143" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>29</v>
+      </c>
+      <c r="B144" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B146" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>30</v>
+      </c>
+      <c r="B149" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B151" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B152" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B153" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>31</v>
+      </c>
+      <c r="B154" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B155" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B157" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B158" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>32</v>
+      </c>
+      <c r="B159" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B160" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B161" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B162" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B163" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>33</v>
+      </c>
+      <c r="B164" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B165" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B166" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B167" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B168" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>34</v>
+      </c>
+      <c r="B169" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B170" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B171" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B172" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B173" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>35</v>
+      </c>
+      <c r="B174" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B175" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B176" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B177" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B178" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>36</v>
+      </c>
+      <c r="B179" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B180" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B181" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B182" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B183" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>37</v>
+      </c>
+      <c r="B184" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B185" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B186" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B187" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B188" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>38</v>
+      </c>
+      <c r="B189" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B190" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B191" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B192" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B193" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>39</v>
+      </c>
+      <c r="B194" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B195" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B196" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B197" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B198" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>40</v>
+      </c>
+      <c r="B199" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B200" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B201" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B202" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B203" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>41</v>
+      </c>
+      <c r="B204" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B205" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B206" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B207" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B208" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B209" s="6">
+        <v>861</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA895AF-6365-477D-BECF-3A395597185E}">
+  <dimension ref="B1:B165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B165" sqref="B2:B165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B165" xr:uid="{6AA895AF-6365-477D-BECF-3A395597185E}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C9B675-647B-41E2-B00D-68B84D635BDF}">
+  <dimension ref="A1:B165"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1943FDC4-A153-4570-AAAA-9174755A8FFF}">
+  <dimension ref="A1:B165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>